--- a/analysis/pre_gemini_data/Participant150/task_med.xlsx
+++ b/analysis/pre_gemini_data/Participant150/task_med.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,137 +422,133 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>arg2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>arg3</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>assign1</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>assign2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>condbody1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>condbody2</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>condstat2</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>condstate1</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>excepthand</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>excepthand2</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>externl2</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>extrnal1</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>literal1</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>literal2</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>literal3</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>literal4</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>methdocall</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>methdocall1</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>methdodec</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>variable1</t>
         </is>
@@ -621,31 +605,31 @@
         <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="H3" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="I3" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M3" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -667,13 +651,13 @@
         <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X3" t="n">
         <v>2</v>
       </c>
       <c r="Y3" t="n">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="Z3" t="n">
         <v>6</v>
@@ -700,31 +684,31 @@
         <v>16</v>
       </c>
       <c r="G4" t="n">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="H4" t="n">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="I4" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L4" t="n">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="M4" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P4" t="n">
         <v>176</v>
@@ -746,13 +730,13 @@
         <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X4" t="n">
         <v>3</v>
       </c>
       <c r="Y4" t="n">
-        <v>322</v>
+        <v>161</v>
       </c>
       <c r="Z4" t="n">
         <v>11</v>
@@ -779,31 +763,31 @@
         <v>7440.86</v>
       </c>
       <c r="G5" t="n">
-        <v>86389.53999999999</v>
+        <v>76278.87</v>
       </c>
       <c r="H5" t="n">
-        <v>56057.46</v>
+        <v>44428.9</v>
       </c>
       <c r="I5" t="n">
-        <v>15098.4</v>
+        <v>13480.06</v>
       </c>
       <c r="J5" t="n">
-        <v>10144.22</v>
+        <v>8642.610000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>5389.93</v>
+        <v>5223.06</v>
       </c>
       <c r="L5" t="n">
-        <v>27327.16</v>
+        <v>21137.4</v>
       </c>
       <c r="M5" t="n">
-        <v>14480.97</v>
+        <v>12745.94</v>
       </c>
       <c r="N5" t="n">
-        <v>7008.35</v>
+        <v>6090.86</v>
       </c>
       <c r="O5" t="n">
-        <v>5872.99</v>
+        <v>4221.19</v>
       </c>
       <c r="P5" t="n">
         <v>40574.34</v>
@@ -825,13 +809,13 @@
         <v>984.3200000000001</v>
       </c>
       <c r="W5" t="n">
-        <v>12813.73</v>
+        <v>11562.39</v>
       </c>
       <c r="X5" t="n">
         <v>1001</v>
       </c>
       <c r="Y5" t="n">
-        <v>129034.88</v>
+        <v>67154.2</v>
       </c>
       <c r="Z5" t="n">
         <v>6006.25</v>
@@ -849,74 +833,74 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>2.23</v>
+        <v>3.81</v>
       </c>
       <c r="F6" t="n">
-        <v>1.91</v>
+        <v>3.28</v>
       </c>
       <c r="G6" t="n">
-        <v>22.23</v>
+        <v>33.59</v>
       </c>
       <c r="H6" t="n">
-        <v>14.42</v>
+        <v>19.57</v>
       </c>
       <c r="I6" t="n">
-        <v>3.89</v>
+        <v>5.94</v>
       </c>
       <c r="J6" t="n">
-        <v>2.61</v>
+        <v>3.81</v>
       </c>
       <c r="K6" t="n">
-        <v>1.39</v>
+        <v>2.3</v>
       </c>
       <c r="L6" t="n">
-        <v>7.03</v>
+        <v>9.31</v>
       </c>
       <c r="M6" t="n">
-        <v>3.73</v>
+        <v>5.61</v>
       </c>
       <c r="N6" t="n">
-        <v>1.8</v>
+        <v>2.68</v>
       </c>
       <c r="O6" t="n">
-        <v>1.51</v>
+        <v>1.86</v>
       </c>
       <c r="P6" t="n">
         <v>24.99</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.61</v>
+        <v>1.04</v>
       </c>
       <c r="R6" t="n">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="S6" t="n">
-        <v>0.45</v>
+        <v>0.77</v>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>0.16</v>
+        <v>0.28</v>
       </c>
       <c r="V6" t="n">
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
       <c r="W6" t="n">
-        <v>3.3</v>
+        <v>5.09</v>
       </c>
       <c r="X6" t="n">
-        <v>0.26</v>
+        <v>0.44</v>
       </c>
       <c r="Y6" t="n">
-        <v>33.2</v>
+        <v>29.58</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.55</v>
+        <v>2.65</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.25</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="7">
@@ -937,31 +921,31 @@
         <v>465.05</v>
       </c>
       <c r="G7" t="n">
-        <v>378.9</v>
+        <v>377.62</v>
       </c>
       <c r="H7" t="n">
-        <v>406.21</v>
+        <v>419.14</v>
       </c>
       <c r="I7" t="n">
-        <v>539.23</v>
+        <v>539.2</v>
       </c>
       <c r="J7" t="n">
-        <v>563.5700000000001</v>
+        <v>540.16</v>
       </c>
       <c r="K7" t="n">
-        <v>414.61</v>
+        <v>435.26</v>
       </c>
       <c r="L7" t="n">
-        <v>414.05</v>
+        <v>406.49</v>
       </c>
       <c r="M7" t="n">
-        <v>517.1799999999999</v>
+        <v>531.08</v>
       </c>
       <c r="N7" t="n">
-        <v>637.12</v>
+        <v>609.09</v>
       </c>
       <c r="O7" t="n">
-        <v>451.77</v>
+        <v>422.12</v>
       </c>
       <c r="P7" t="n">
         <v>230.54</v>
@@ -983,13 +967,13 @@
         <v>492.16</v>
       </c>
       <c r="W7" t="n">
-        <v>388.29</v>
+        <v>372.98</v>
       </c>
       <c r="X7" t="n">
         <v>333.67</v>
       </c>
       <c r="Y7" t="n">
-        <v>400.73</v>
+        <v>417.11</v>
       </c>
       <c r="Z7" t="n">
         <v>546.02</v>
@@ -1022,7 +1006,7 @@
         <v>150.14</v>
       </c>
       <c r="I8" t="n">
-        <v>150.14</v>
+        <v>116.69</v>
       </c>
       <c r="J8" t="n">
         <v>83.3</v>
@@ -1031,10 +1015,10 @@
         <v>333.73</v>
       </c>
       <c r="L8" t="n">
-        <v>400.41</v>
+        <v>150.14</v>
       </c>
       <c r="M8" t="n">
-        <v>150.14</v>
+        <v>116.69</v>
       </c>
       <c r="N8" t="n">
         <v>1751.87</v>
@@ -1106,64 +1090,6 @@
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
